--- a/emp_ids.xlsx
+++ b/emp_ids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Files\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbettadapura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4651BB01-C517-45C0-A3A9-C826B53A4829}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA48D0-6931-4F61-A65F-78191E6E911E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6078C3D3-E2D8-4722-8306-603918141D90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6078C3D3-E2D8-4722-8306-603918141D90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -131,9 +136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -277,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,12 +438,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -454,7 +459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -462,7 +467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -470,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -478,7 +483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
